--- a/Data/ZalaxusSizeSplit.xlsx
+++ b/Data/ZalaxusSizeSplit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Master\BI\KNIME\KNIME-Master-BI\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\knime-workspace\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1902D44-957F-49B6-843C-2943D55381E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029AA15C-48CB-4CE4-A1EC-DF0032C425C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16110" yWindow="1770" windowWidth="9630" windowHeight="7960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -395,19 +395,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -438,7 +438,7 @@
         <v>164</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>61</v>
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -507,7 +507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -607,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -647,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -747,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -827,7 +827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -847,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -867,7 +867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -887,7 +887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -947,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -967,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -987,7 +987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>151</v>
       </c>
       <c r="D76">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>45</v>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>154</v>
       </c>
       <c r="D79">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E79">
         <v>52</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>16</v>
       </c>
